--- a/Bancos de Dados/Enderecos-Mini-Curso.xlsx
+++ b/Bancos de Dados/Enderecos-Mini-Curso.xlsx
@@ -1,625 +1,650 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\geocoding-mini-curso-r\Bancos de Dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72897C30-77B2-412B-9FBC-28A7B0E3BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
-  <si>
-    <t xml:space="preserve">endereco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cep</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="206">
+  <si>
+    <t>endereco</t>
+  </si>
+  <si>
+    <t>cep</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida A Distrito Industrial    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054712</t>
+    <t>13054712</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Novo Taquaral    </t>
   </si>
   <si>
-    <t xml:space="preserve">13077109</t>
+    <t>13077109</t>
   </si>
   <si>
     <t xml:space="preserve">Viela A Jardim Metonopolis    </t>
   </si>
   <si>
-    <t xml:space="preserve">13058451</t>
+    <t>13058451</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Loteamento Claude de Barros Penteado (Sousas)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13105244</t>
+    <t>13105244</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Jardim Rosalia IV    </t>
   </si>
   <si>
-    <t xml:space="preserve">13067750</t>
+    <t>13067750</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Chacaras Sao Martinho    </t>
   </si>
   <si>
-    <t xml:space="preserve">13042830</t>
+    <t>13042830</t>
   </si>
   <si>
     <t xml:space="preserve">Viela A Nucleo Residencial Parque Pinheiros    </t>
   </si>
   <si>
-    <t xml:space="preserve">13067238</t>
+    <t>13067238</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Jardim Monte Libano    </t>
   </si>
   <si>
-    <t xml:space="preserve">13046429</t>
+    <t>13046429</t>
   </si>
   <si>
     <t xml:space="preserve">Rua A Sensitiva Jardim Novo Campos Eliseos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13060421</t>
+    <t>13060421</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Aba Parque Universitario de Viracopos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056502</t>
+    <t>13056502</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abacai Parque Universitario de Viracopos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056481</t>
+    <t>13056481</t>
   </si>
   <si>
     <t xml:space="preserve">Rua da Nossa Senhora Abadia Conjunto Habitacional Padre Anchieta    </t>
   </si>
   <si>
-    <t xml:space="preserve">13068511</t>
+    <t>13068511</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abaete Parque Universitario de Viracopos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056482</t>
+    <t>13056482</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abare Parque Universitario de Viracopos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056470</t>
+    <t>13056470</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abel Antonio Mendanha Jardim Novo Campos Eliseos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050731</t>
+    <t>13050731</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abel Jose Bonomi Vila Santa Isabel    </t>
   </si>
   <si>
-    <t xml:space="preserve">13084654</t>
+    <t>13084654</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abel Luis Ferreira Jardim do Lago    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050023</t>
+    <t>13050023</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abel Pereira da Silva Jardim Itaguacu II    </t>
   </si>
   <si>
-    <t xml:space="preserve">13053535</t>
+    <t>13053535</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Doutor Abelardo Cerqueira Cesar Jardim Bonfim    </t>
   </si>
   <si>
-    <t xml:space="preserve">13032535</t>
+    <t>13032535</t>
   </si>
   <si>
     <t xml:space="preserve">Viela Abelardo Jose dos Santos Jardim Santo Antonio    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054806</t>
+    <t>13054806</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abelardo Pires de Avila Jardim Marisa    </t>
   </si>
   <si>
-    <t xml:space="preserve">13053200</t>
+    <t>13053200</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida Doutor Abelardo Pompeu do Amaral - ate / Vila Industrial    </t>
   </si>
   <si>
-    <t xml:space="preserve">13035590</t>
+    <t>13035590</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida Doutor Abelardo Pompeu do Amaral - de / ao fim Vila Industrial    </t>
   </si>
   <si>
-    <t xml:space="preserve">13035600</t>
+    <t>13035600</t>
   </si>
   <si>
     <t xml:space="preserve">Rua das Abelias Alphaville Dom Pedro    </t>
   </si>
   <si>
-    <t xml:space="preserve">13097173</t>
+    <t>13097173</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abigail Arantes Leite Bosque das Palmeiras    </t>
   </si>
   <si>
-    <t xml:space="preserve">13086720</t>
+    <t>13086720</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abigail Zeni Nader - ate / Dic VI (Conjunto Habitacional Santo Dias Silva)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054696</t>
+    <t>13054696</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abigail Zeni Nader - de / ao fim Dic V (Conjunto Habitacional Chico Mendes)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054500</t>
+    <t>13054500</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Alves Rabelo Eldorado dos Carajas    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054287</t>
+    <t>13054287</t>
   </si>
   <si>
     <t xml:space="preserve">Praca Abilio de Jesus Dias Jardim Novo Campos Eliseos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050588</t>
+    <t>13050588</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Fernandes Jardim Alvorada    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050743</t>
+    <t>13050743</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Fernandes Serra Jardim Garcia    </t>
   </si>
   <si>
-    <t xml:space="preserve">13061093</t>
+    <t>13061093</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Jose dos Santos Jardim Novo Campos Eliseos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050712</t>
+    <t>13050712</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Luz (Residencial Lauerz) Swiss Park    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049511</t>
+    <t>13049511</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abilio Vilela Junqueira Chacara Santa Margarida    </t>
   </si>
   <si>
-    <t xml:space="preserve">13085420</t>
+    <t>13085420</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abiurana Loteamento Alphaville     </t>
   </si>
   <si>
-    <t xml:space="preserve">13098358</t>
+    <t>13098358</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abner Maia Jardim Santa Terezinha    </t>
   </si>
   <si>
-    <t xml:space="preserve">13052161</t>
+    <t>13052161</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abner Paulo de Oliveira Parque Eldorado    </t>
   </si>
   <si>
-    <t xml:space="preserve">13052766</t>
+    <t>13052766</t>
   </si>
   <si>
     <t xml:space="preserve">Rua da Abolicao - ate / Ponte Preta    </t>
   </si>
   <si>
-    <t xml:space="preserve">13041445</t>
+    <t>13041445</t>
   </si>
   <si>
     <t xml:space="preserve">Rua da Abolicao - de / ao fim Vila Joaquim Inacio    </t>
   </si>
   <si>
-    <t xml:space="preserve">13045750</t>
+    <t>13045750</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abrahao Pasmanik Jardim Icarai    </t>
   </si>
   <si>
-    <t xml:space="preserve">13051412</t>
+    <t>13051412</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida Abram Steinberg Bairro das Palmeiras    </t>
   </si>
   <si>
-    <t xml:space="preserve">13092597</t>
+    <t>13092597</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abran Gelwan Jardim Botanico (Sousas)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13106286</t>
+    <t>13106286</t>
   </si>
   <si>
     <t xml:space="preserve">Rua de Marques Abrantes Jardim Santa Genebra    </t>
   </si>
   <si>
-    <t xml:space="preserve">13080220</t>
+    <t>13080220</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abrao Baracat Jardim Sao Jose    </t>
   </si>
   <si>
-    <t xml:space="preserve">13051155</t>
+    <t>13051155</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abrao Jose Jorge Jardim Ouro Preto    </t>
   </si>
   <si>
-    <t xml:space="preserve">13059776</t>
+    <t>13059776</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abrolhos Jardim Santo Antonio    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054776</t>
+    <t>13054776</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Abuna Parque Universitario de Viracopos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056483</t>
+    <t>13056483</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acacia Jardim Capivari    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050816</t>
+    <t>13050816</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acacia Mimosa Loteamento Solar     </t>
   </si>
   <si>
-    <t xml:space="preserve">13085692</t>
+    <t>13085692</t>
   </si>
   <si>
     <t xml:space="preserve">Rua das Acacias Vila Boa Vista    </t>
   </si>
   <si>
-    <t xml:space="preserve">13064797</t>
+    <t>13064797</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acai Bairro das Palmeiras    </t>
   </si>
   <si>
-    <t xml:space="preserve">13092587</t>
+    <t>13092587</t>
   </si>
   <si>
     <t xml:space="preserve">Rua dos Acajus Vila Boa Vista    </t>
   </si>
   <si>
-    <t xml:space="preserve">13064745</t>
+    <t>13064745</t>
   </si>
   <si>
     <t xml:space="preserve">Alameda das Acerolas Loteamento Chacara Prado    </t>
   </si>
   <si>
-    <t xml:space="preserve">13042093</t>
+    <t>13042093</t>
   </si>
   <si>
     <t xml:space="preserve">Estrada Acesso A Vila Lunardi    </t>
   </si>
   <si>
-    <t xml:space="preserve">13067170</t>
+    <t>13067170</t>
   </si>
   <si>
     <t xml:space="preserve">Estrada de Acesso X-Tal Polo II de Alta Tecnologia ()    </t>
   </si>
   <si>
-    <t xml:space="preserve">13086520</t>
+    <t>13086520</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Professor Achille Bassi Cidade Universitaria    </t>
   </si>
   <si>
-    <t xml:space="preserve">13083530</t>
+    <t>13083530</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Achilles Bertoldi Cidade Satelite Iris    </t>
   </si>
   <si>
-    <t xml:space="preserve">13059623</t>
+    <t>13059623</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Achilles Brasil Jardim Maisa    </t>
   </si>
   <si>
-    <t xml:space="preserve">13046360</t>
+    <t>13046360</t>
   </si>
   <si>
     <t xml:space="preserve">Rua dos Acoces Vila Costa e Silva    </t>
   </si>
   <si>
-    <t xml:space="preserve">13081360</t>
+    <t>13081360</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acor Vila Padre Manoel de Nobrega    </t>
   </si>
   <si>
-    <t xml:space="preserve">13061347</t>
+    <t>13061347</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acrisio Pacheco Jardim do Lago    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050004</t>
+    <t>13050004</t>
   </si>
   <si>
     <t xml:space="preserve">Rua do Acrobata Residencial Parque das Araucarias    </t>
   </si>
   <si>
-    <t xml:space="preserve">13105806</t>
+    <t>13105806</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acu Loteamento Alphaville     </t>
   </si>
   <si>
-    <t xml:space="preserve">13098335</t>
+    <t>13098335</t>
   </si>
   <si>
     <t xml:space="preserve">Rua do Acucar Jardim Chapadao    </t>
   </si>
   <si>
-    <t xml:space="preserve">13070024</t>
+    <t>13070024</t>
   </si>
   <si>
     <t xml:space="preserve">Rua das Acucenas Jardim das Bandeiras    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050072</t>
+    <t>13050072</t>
   </si>
   <si>
     <t xml:space="preserve">Rua da Acurana Residencial Parque das Araucarias    </t>
   </si>
   <si>
-    <t xml:space="preserve">13105815</t>
+    <t>13105815</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Acurcio Ferreira Pessoa Jardim Monte Cristo/Parque Oziel    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049071</t>
+    <t>13049071</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Ada de Oliveira Vila Palmeiras II    </t>
   </si>
   <si>
-    <t xml:space="preserve">13053260</t>
+    <t>13053260</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Ada Guernelli Maia Loteamento Residencial Novo Mundo    </t>
   </si>
   <si>
-    <t xml:space="preserve">13058288</t>
+    <t>13058288</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Ada Maria Berton Dalmedico Morada das Nascentes (Joaquim Egidio)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13108297</t>
+    <t>13108297</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Ada Matallo Pavani (Residencial Lenk) Swiss Park    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049436</t>
+    <t>13049436</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Ada Matallo Pavani (Residencial Vevey) Swiss Park    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049465</t>
+    <t>13049465</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalberto Inacio Nogueira Jardim Sao Cristovao    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056283</t>
+    <t>13056283</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalberto Maia Taquaral    </t>
   </si>
   <si>
-    <t xml:space="preserve">13076007</t>
+    <t>13076007</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Professor Adalberto Nascimento Sao Bernardo    </t>
   </si>
   <si>
-    <t xml:space="preserve">13030730</t>
+    <t>13030730</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalberto Panzan Terminal Intermodal de Cargas (TIC)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13069105</t>
+    <t>13069105</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalberto Patrocinio Jardim Sao Domingos    </t>
   </si>
   <si>
-    <t xml:space="preserve">13053314</t>
+    <t>13053314</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Professor Adalberto Prado e Silva Cidade Universitaria    </t>
   </si>
   <si>
-    <t xml:space="preserve">13083540</t>
+    <t>13083540</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalgiza Nery - de / ao fim Jardim Profilurb    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056323</t>
+    <t>13056323</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adalgiza Nery - ate / Dic I (Conjunto Habitacional Monsenhor Luiz Fernando Abreu)    </t>
   </si>
   <si>
-    <t xml:space="preserve">13056391</t>
+    <t>13056391</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adamantina Vila Nova    </t>
   </si>
   <si>
-    <t xml:space="preserve">13073109</t>
+    <t>13073109</t>
   </si>
   <si>
     <t xml:space="preserve">Praca Adamina Del Soldato Saad Cambui    </t>
   </si>
   <si>
-    <t xml:space="preserve">13024515</t>
+    <t>13024515</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adamo Astolfi Parque Camelias    </t>
   </si>
   <si>
-    <t xml:space="preserve">13052532</t>
+    <t>13052532</t>
   </si>
   <si>
     <t xml:space="preserve">Avenida Adao Focesi Jardim do Lago    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050000</t>
+    <t>13050000</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Goncalves - ate / Conjunto Habitacional Padre Anchieta    </t>
   </si>
   <si>
-    <t xml:space="preserve">13068028</t>
+    <t>13068028</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Goncalves - de / ao fim Jardim Aparecida    </t>
   </si>
   <si>
-    <t xml:space="preserve">13068628</t>
+    <t>13068628</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Goncalves Fernandes Gleba - Subdivisao de Adao Goncalves Fernandes    </t>
   </si>
   <si>
-    <t xml:space="preserve">13068596</t>
+    <t>13068596</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Maestro Adao Gozzi Jardim Ouro Branco    </t>
   </si>
   <si>
-    <t xml:space="preserve">13100506</t>
+    <t>13100506</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Hoffmann Vila Industrial    </t>
   </si>
   <si>
-    <t xml:space="preserve">13035010</t>
+    <t>13035010</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Luiz Chiminazzo (Residencial Baden) Swiss Park    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049392</t>
+    <t>13049392</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Rita Residencial Parque da Fazenda    </t>
   </si>
   <si>
-    <t xml:space="preserve">13060575</t>
+    <t>13060575</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Rodrigues Filho Conjunto Residencial Parque Sao Bento    </t>
   </si>
   <si>
-    <t xml:space="preserve">13058214</t>
+    <t>13058214</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adao Soares da Silva Jardim Monte Cristo/Parque Oziel    </t>
   </si>
   <si>
-    <t xml:space="preserve">13049127</t>
+    <t>13049127</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adauto Ribeiro de Melo Loteamento Country Ville    </t>
   </si>
   <si>
-    <t xml:space="preserve">13050182</t>
+    <t>13050182</t>
   </si>
   <si>
     <t xml:space="preserve">Viela Adelaide Cicero Vidotti Jardim Santo Antonio    </t>
   </si>
   <si>
-    <t xml:space="preserve">13054809</t>
+    <t>13054809</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adelaide Daniel de Almeida Loteamento Center Santa Genebra    </t>
   </si>
   <si>
-    <t xml:space="preserve">13080661</t>
+    <t>13080661</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adelaide dos Santos Barreira Jardim Chapadao    </t>
   </si>
   <si>
-    <t xml:space="preserve">13070007</t>
+    <t>13070007</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Santa Adelia Jardim Brasil    </t>
   </si>
   <si>
-    <t xml:space="preserve">13073019</t>
+    <t>13073019</t>
   </si>
   <si>
     <t xml:space="preserve">Rua Adelia Abib Conjunto Residencial Parque Sao Bento    </t>
   </si>
   <si>
-    <t xml:space="preserve">13058153</t>
+    <t>13058153</t>
+  </si>
+  <si>
+    <t>municipio</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>pais</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Brasil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -655,6 +680,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -936,815 +970,1717 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="C1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="C14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="C17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="C30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="C33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="C34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="C35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="C36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="C37" t="s">
+        <v>203</v>
+      </c>
+      <c r="D37" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="C39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="C41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="C43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+      <c r="D44" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="C49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="C50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="C52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="C53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="C56" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="C57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D57" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>114</v>
       </c>
       <c r="B58" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="C59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="C60" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" t="s">
+        <v>204</v>
+      </c>
+      <c r="E60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="C62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>124</v>
       </c>
       <c r="B63" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="C63" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>126</v>
       </c>
       <c r="B64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="C64" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>128</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="C65" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+      <c r="E65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>130</v>
       </c>
       <c r="B66" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="C66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>132</v>
       </c>
       <c r="B67" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="C67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>134</v>
       </c>
       <c r="B68" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="C68" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>136</v>
       </c>
       <c r="B69" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>138</v>
       </c>
       <c r="B70" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>140</v>
       </c>
       <c r="B71" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="C71" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>142</v>
       </c>
       <c r="B72" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="C72" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>204</v>
+      </c>
+      <c r="E73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>146</v>
       </c>
       <c r="B74" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="C74" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="C75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>150</v>
       </c>
       <c r="B76" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77">
+      <c r="C76" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>152</v>
       </c>
       <c r="B77" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78">
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>154</v>
       </c>
       <c r="B78" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79">
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>156</v>
       </c>
       <c r="B79" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80">
+      <c r="C79" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>158</v>
       </c>
       <c r="B80" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81">
+      <c r="C80" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>160</v>
       </c>
       <c r="B81" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82">
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>162</v>
       </c>
       <c r="B82" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83">
+      <c r="C82" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>164</v>
       </c>
       <c r="B83" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84">
+      <c r="C83" t="s">
+        <v>203</v>
+      </c>
+      <c r="D83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>166</v>
       </c>
       <c r="B84" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85">
+      <c r="C84" t="s">
+        <v>203</v>
+      </c>
+      <c r="D84" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>168</v>
       </c>
       <c r="B85" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86">
+      <c r="C85" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>170</v>
       </c>
       <c r="B86" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87">
+      <c r="C86" t="s">
+        <v>203</v>
+      </c>
+      <c r="D86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
       <c r="B87" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88">
+      <c r="C87" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>174</v>
       </c>
       <c r="B88" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89">
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>176</v>
       </c>
       <c r="B89" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90">
+      <c r="C89" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>178</v>
       </c>
       <c r="B90" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91">
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>180</v>
       </c>
       <c r="B91" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="92">
+      <c r="C91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>182</v>
       </c>
       <c r="B92" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93">
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>184</v>
       </c>
       <c r="B93" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94">
+      <c r="C93" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>186</v>
       </c>
       <c r="B94" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95">
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>188</v>
       </c>
       <c r="B95" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96">
+      <c r="C95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>190</v>
       </c>
       <c r="B96" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97">
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>192</v>
       </c>
       <c r="B97" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98">
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>194</v>
       </c>
       <c r="B98" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="99">
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>196</v>
       </c>
       <c r="B99" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="100">
+      <c r="C99" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>198</v>
       </c>
       <c r="B100" t="s">
         <v>199</v>
       </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Bancos de Dados/Enderecos-Mini-Curso.xlsx
+++ b/Bancos de Dados/Enderecos-Mini-Curso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Documents\GitHub\geocoding-mini-curso-r\Bancos de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72897C30-77B2-412B-9FBC-28A7B0E3BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263DB98C-0434-4CF1-AE4B-01969F85AB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30810" yWindow="4215" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
